--- a/arch-framework/src/test/resources/uni-life-ums.xlsx
+++ b/arch-framework/src/test/resources/uni-life-ums.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12690"/>
+    <workbookView windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="9" r:id="rId1"/>
@@ -2922,12 +2922,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2970,22 +2970,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2997,7 +2993,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3011,28 +3052,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3049,15 +3084,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3065,38 +3093,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3110,24 +3107,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3160,43 +3148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3214,7 +3166,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3226,25 +3238,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3256,25 +3310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,61 +3328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3417,7 +3405,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3437,17 +3425,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3470,8 +3452,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3501,165 +3498,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3723,60 +3711,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -4271,7 +4243,7 @@
   <sheetPr/>
   <dimension ref="A1:J16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -4290,39 +4262,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
@@ -4331,7 +4303,7 @@
       <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4350,14 +4322,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="36"/>
+      <c r="A3" s="33"/>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -4372,14 +4344,14 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="36"/>
+      <c r="A4" s="33"/>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="10"/>
@@ -4392,14 +4364,14 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="36"/>
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="10"/>
@@ -4412,14 +4384,14 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="36"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="10"/>
@@ -4432,14 +4404,14 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="36"/>
+      <c r="A7" s="33"/>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -4450,14 +4422,14 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="36"/>
+      <c r="A8" s="33"/>
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="10"/>
@@ -4470,14 +4442,14 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="36"/>
+      <c r="A9" s="33"/>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="10"/>
@@ -4490,14 +4462,14 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="36"/>
+      <c r="A10" s="33"/>
       <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -4514,14 +4486,14 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="36"/>
+      <c r="A11" s="33"/>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="21"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -4532,7 +4504,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
@@ -4541,7 +4513,7 @@
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -4560,14 +4532,14 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="36"/>
+      <c r="A13" s="33"/>
       <c r="B13" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E13"/>
@@ -4580,14 +4552,14 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="36"/>
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E14"/>
@@ -4600,14 +4572,14 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="36"/>
+      <c r="A15" s="33"/>
       <c r="B15" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E15"/>
@@ -4620,14 +4592,14 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="36"/>
+      <c r="A16" s="33"/>
       <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E16"/>
@@ -4640,14 +4612,14 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
+      <c r="A17" s="33"/>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E17"/>
@@ -4660,14 +4632,14 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
+      <c r="A18" s="33"/>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E18"/>
@@ -4680,14 +4652,14 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
+      <c r="A19" s="33"/>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E19"/>
@@ -4700,14 +4672,14 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
+      <c r="A20" s="33"/>
       <c r="B20" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E20"/>
@@ -4720,14 +4692,14 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
+      <c r="A21" s="33"/>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="46"/>
+      <c r="D21" s="21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -4738,7 +4710,7 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B22" t="s">
@@ -4747,7 +4719,7 @@
       <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="10" t="s">
@@ -4766,14 +4738,14 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
+      <c r="A23" s="33"/>
       <c r="B23" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E23"/>
@@ -4786,14 +4758,14 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
+      <c r="A24" s="33"/>
       <c r="B24" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="21" t="s">
         <v>66</v>
       </c>
       <c r="E24"/>
@@ -4806,14 +4778,14 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
+      <c r="A25" s="33"/>
       <c r="B25" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E25"/>
@@ -4826,14 +4798,14 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
+      <c r="A26" s="33"/>
       <c r="B26" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E26"/>
@@ -4846,14 +4818,14 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
+      <c r="A27" s="33"/>
       <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E27"/>
@@ -4866,14 +4838,14 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
+      <c r="A28" s="33"/>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E28"/>
@@ -4886,14 +4858,14 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
+      <c r="A29" s="33"/>
       <c r="B29" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="21"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
@@ -4904,14 +4876,14 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="36"/>
+      <c r="A30" s="33"/>
       <c r="B30" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="21"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -4922,7 +4894,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B31" t="s">
@@ -4931,7 +4903,7 @@
       <c r="C31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E31"/>
@@ -4944,14 +4916,14 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
+      <c r="A32" s="33"/>
       <c r="B32" t="s">
         <v>77</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E32"/>
@@ -4964,14 +4936,14 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
+      <c r="A33" s="33"/>
       <c r="B33" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E33"/>
@@ -4984,14 +4956,14 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="36"/>
+      <c r="A34" s="33"/>
       <c r="B34" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E34"/>
@@ -5004,14 +4976,14 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
+      <c r="A35" s="33"/>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E35"/>
@@ -5024,14 +4996,14 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
+      <c r="A36" s="33"/>
       <c r="B36" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="21"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -5042,14 +5014,14 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
+      <c r="A37" s="33"/>
       <c r="B37" t="s">
         <v>42</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="46"/>
+      <c r="D37" s="21"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -5060,7 +5032,7 @@
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B38" t="s">
@@ -5069,7 +5041,7 @@
       <c r="C38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E38"/>
@@ -5082,14 +5054,14 @@
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="36"/>
+      <c r="A39" s="33"/>
       <c r="B39" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="21" t="s">
         <v>19</v>
       </c>
       <c r="E39"/>
@@ -5102,14 +5074,14 @@
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="36"/>
+      <c r="A40" s="33"/>
       <c r="B40" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E40"/>
@@ -5122,34 +5094,34 @@
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="36"/>
+      <c r="A41" s="33"/>
       <c r="B41" t="s">
         <v>91</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
       <c r="J41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="36"/>
+      <c r="A42" s="33"/>
       <c r="B42" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E42"/>
@@ -5162,14 +5134,14 @@
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="36"/>
+      <c r="A43" s="33"/>
       <c r="B43" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E43"/>
@@ -5182,14 +5154,14 @@
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="36"/>
+      <c r="A44" s="33"/>
       <c r="B44" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="46"/>
+      <c r="D44" s="21"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
@@ -5200,14 +5172,14 @@
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="36"/>
+      <c r="A45" s="33"/>
       <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="46"/>
+      <c r="D45" s="21"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
@@ -5218,7 +5190,7 @@
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B46" t="s">
@@ -5227,7 +5199,7 @@
       <c r="C46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E46"/>
@@ -5240,14 +5212,14 @@
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="36"/>
+      <c r="A47" s="33"/>
       <c r="B47" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E47"/>
@@ -5260,14 +5232,14 @@
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="36"/>
+      <c r="A48" s="33"/>
       <c r="B48" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E48"/>
@@ -5280,14 +5252,14 @@
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="36"/>
+      <c r="A49" s="33"/>
       <c r="B49" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E49"/>
@@ -5300,14 +5272,14 @@
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="36"/>
+      <c r="A50" s="33"/>
       <c r="B50" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E50"/>
@@ -5320,14 +5292,14 @@
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="36"/>
+      <c r="A51" s="33"/>
       <c r="B51" t="s">
         <v>56</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E51"/>
@@ -5340,14 +5312,14 @@
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="36"/>
+      <c r="A52" s="33"/>
       <c r="B52" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="46"/>
+      <c r="D52" s="21"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
@@ -5358,14 +5330,14 @@
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="36"/>
+      <c r="A53" s="33"/>
       <c r="B53" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="46"/>
+      <c r="D53" s="21"/>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
@@ -5376,14 +5348,14 @@
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="36"/>
+      <c r="A54" s="33"/>
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="46"/>
+      <c r="D54" s="21"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
@@ -5394,7 +5366,7 @@
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
@@ -5403,7 +5375,7 @@
       <c r="C55" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E55"/>
@@ -5416,14 +5388,14 @@
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="36"/>
+      <c r="A56" s="33"/>
       <c r="B56" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E56"/>
@@ -5436,14 +5408,14 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="36"/>
+      <c r="A57" s="33"/>
       <c r="B57" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E57"/>
@@ -5456,14 +5428,14 @@
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="36"/>
+      <c r="A58" s="33"/>
       <c r="B58" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="21" t="s">
         <v>80</v>
       </c>
       <c r="E58"/>
@@ -5476,14 +5448,14 @@
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="36"/>
+      <c r="A59" s="33"/>
       <c r="B59" t="s">
         <v>56</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="46"/>
+      <c r="D59" s="21"/>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
@@ -5494,14 +5466,14 @@
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="36"/>
+      <c r="A60" s="33"/>
       <c r="B60" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="46"/>
+      <c r="D60" s="21"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
@@ -5512,7 +5484,7 @@
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B61" t="s">
@@ -5521,7 +5493,7 @@
       <c r="C61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E61"/>
@@ -5534,14 +5506,14 @@
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="36"/>
+      <c r="A62" s="33"/>
       <c r="B62" t="s">
         <v>115</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E62"/>
@@ -5554,14 +5526,14 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="36"/>
+      <c r="A63" s="33"/>
       <c r="B63" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E63"/>
@@ -5574,14 +5546,14 @@
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="36"/>
+      <c r="A64" s="33"/>
       <c r="B64" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D64" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E64"/>
@@ -5594,14 +5566,14 @@
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="36"/>
+      <c r="A65" s="33"/>
       <c r="B65" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="46"/>
+      <c r="D65" s="21"/>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
@@ -5612,14 +5584,14 @@
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="36"/>
+      <c r="A66" s="33"/>
       <c r="B66" t="s">
         <v>42</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="46"/>
+      <c r="D66" s="21"/>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
@@ -5636,28 +5608,28 @@
     <row r="68" customFormat="1" spans="1:3">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
-      <c r="C68" s="44"/>
+      <c r="C68" s="40"/>
     </row>
     <row r="69" customFormat="1" spans="1:3">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
-      <c r="C69" s="44"/>
+      <c r="C69" s="40"/>
     </row>
     <row r="70" customFormat="1" spans="1:3">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
-      <c r="C70" s="44"/>
+      <c r="C70" s="40"/>
     </row>
     <row r="71" customFormat="1" spans="1:3">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
-      <c r="C71" s="44"/>
+      <c r="C71" s="40"/>
     </row>
     <row r="72" customFormat="1" spans="1:4">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="29"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" customFormat="1" spans="1:2">
       <c r="A73" s="24"/>
@@ -24109,7 +24081,7 @@
   <sheetPr/>
   <dimension ref="A1:L16384"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B109" sqref="B109:J109"/>
     </sheetView>
   </sheetViews>
@@ -24128,153 +24100,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="42" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="42" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="38" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="42" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="38" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="42" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="38" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="42" t="s">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="38" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="36"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>1</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8">
@@ -24283,66 +24255,66 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="38" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="36"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>20</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="38" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="36"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <v>64</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="38" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="36"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="27">
         <v>20</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="8">
@@ -24351,394 +24323,389 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="38" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="39" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="36"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>64</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="38" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="36"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>20</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="38" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="36"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>64</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="36"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="27">
         <v>64</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="38" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="36"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="27">
         <v>64</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="38" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="27">
         <v>64</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="36"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="27">
         <v>20</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="27">
         <v>64</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="38" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="36"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="27">
         <v>20</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="36"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="27">
         <v>64</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="36"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="27">
         <v>64</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="38" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="36"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="27">
         <v>64</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="36"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="27">
         <v>64</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="36"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="27">
         <v>64</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="36"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="27">
         <v>64</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="36"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="27">
         <v>64</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="36"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="27">
         <v>20</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="34" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="8">
@@ -24747,37 +24714,37 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="38" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="36"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="30"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="42"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="33" t="s">
         <v>168</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -24791,19 +24758,19 @@
         <v>14</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="38" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="36"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="10" t="s">
@@ -24817,20 +24784,20 @@
         <v>14</v>
       </c>
       <c r="I31" s="9"/>
-      <c r="J31" s="42" t="s">
+      <c r="J31" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="L31" s="44"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="36"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -24846,19 +24813,19 @@
         <v>14</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="42" t="s">
+      <c r="J32" s="38" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="36"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E33"/>
@@ -24866,21 +24833,21 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-      <c r="J33" s="42" t="s">
+      <c r="J33" s="38" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="33" t="s">
         <v>175</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="10" t="s">
@@ -24894,19 +24861,19 @@
         <v>14</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="38" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="36"/>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="10" t="s">
@@ -24920,19 +24887,19 @@
         <v>14</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="38" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="36"/>
-      <c r="B36" s="28" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="10" t="s">
@@ -24946,19 +24913,19 @@
         <v>14</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="42" t="s">
+      <c r="J36" s="38" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="36"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="10" t="s">
@@ -24968,21 +24935,21 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="42" t="s">
+      <c r="J37" s="38" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="37" t="s">
         <v>184</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E38"/>
@@ -24990,19 +24957,19 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-      <c r="J38" s="42" t="s">
+      <c r="J38" s="38" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="41"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="27">
         <v>11</v>
       </c>
       <c r="E39"/>
@@ -25010,19 +24977,19 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" s="42" t="s">
+      <c r="J39" s="38" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="41"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="27">
         <v>11</v>
       </c>
       <c r="E40"/>
@@ -25030,19 +24997,19 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40" s="42" t="s">
+      <c r="J40" s="38" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="41"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="27">
         <v>11</v>
       </c>
       <c r="E41"/>
@@ -25050,19 +25017,19 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" s="42" t="s">
+      <c r="J41" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="41"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E42"/>
@@ -25070,19 +25037,19 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" s="42" t="s">
+      <c r="J42" s="38" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="41"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E43"/>
@@ -25090,19 +25057,19 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" s="42" t="s">
+      <c r="J43" s="38" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="41"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E44"/>
@@ -25110,19 +25077,19 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-      <c r="J44" s="42" t="s">
+      <c r="J44" s="38" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="41"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E45"/>
@@ -25130,19 +25097,19 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-      <c r="J45" s="42" t="s">
+      <c r="J45" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="41"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E46"/>
@@ -25150,19 +25117,19 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-      <c r="J46" s="42" t="s">
+      <c r="J46" s="38" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="41"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E47"/>
@@ -25170,21 +25137,21 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-      <c r="J47" s="42" t="s">
+      <c r="J47" s="38" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="31" t="s">
         <v>203</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -25198,19 +25165,19 @@
         <v>14</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="42" t="s">
+      <c r="J48" s="38" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="36"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -25224,19 +25191,19 @@
         <v>14</v>
       </c>
       <c r="I49" s="9"/>
-      <c r="J49" s="42" t="s">
+      <c r="J49" s="38" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="36"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="10" t="s">
@@ -25246,21 +25213,21 @@
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="42" t="s">
+      <c r="J50" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="33" t="s">
         <v>208</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="10"/>
@@ -25268,19 +25235,19 @@
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="42" t="s">
+      <c r="J51" s="38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="36"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E52" s="10"/>
@@ -25288,19 +25255,19 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="42" t="s">
+      <c r="J52" s="38" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="36"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="10"/>
@@ -25308,21 +25275,21 @@
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="42" t="s">
+      <c r="J53" s="38" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="33" t="s">
         <v>213</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="10"/>
@@ -25330,19 +25297,19 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="42" t="s">
+      <c r="J54" s="38" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="36"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E55" s="10"/>
@@ -25350,19 +25317,19 @@
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="42" t="s">
+      <c r="J55" s="38" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="36"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E56" s="10"/>
@@ -25370,19 +25337,19 @@
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="42" t="s">
+      <c r="J56" s="38" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="36"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="27" t="s">
         <v>129</v>
       </c>
       <c r="E57" s="10"/>
@@ -25390,19 +25357,19 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="42" t="s">
+      <c r="J57" s="38" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="36"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="10"/>
@@ -25410,19 +25377,19 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="42" t="s">
+      <c r="J58" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="36"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E59" s="10"/>
@@ -25430,19 +25397,19 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="42" t="s">
+      <c r="J59" s="38" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="36"/>
+      <c r="A60" s="33"/>
       <c r="B60" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E60" s="10"/>
@@ -25450,19 +25417,19 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="42" t="s">
+      <c r="J60" s="38" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="36"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="10"/>
@@ -25470,19 +25437,19 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="42" t="s">
+      <c r="J61" s="38" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="36"/>
+      <c r="A62" s="33"/>
       <c r="B62" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E62" s="10"/>
@@ -25490,19 +25457,19 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="42" t="s">
+      <c r="J62" s="38" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="36"/>
+      <c r="A63" s="33"/>
       <c r="B63" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C63" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E63" s="10"/>
@@ -25510,21 +25477,21 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="42" t="s">
+      <c r="J63" s="38" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="33" t="s">
         <v>234</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="10"/>
@@ -25532,19 +25499,19 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="42" t="s">
+      <c r="J64" s="38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="36"/>
+      <c r="A65" s="33"/>
       <c r="B65" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C65" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E65"/>
@@ -25552,19 +25519,19 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-      <c r="J65" s="42" t="s">
+      <c r="J65" s="38" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="36"/>
+      <c r="A66" s="33"/>
       <c r="B66" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E66"/>
@@ -25572,19 +25539,19 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-      <c r="J66" s="42" t="s">
+      <c r="J66" s="38" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="36"/>
+      <c r="A67" s="33"/>
       <c r="B67" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E67"/>
@@ -25592,19 +25559,19 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-      <c r="J67" s="42" t="s">
+      <c r="J67" s="38" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="36"/>
+      <c r="A68" s="33"/>
       <c r="B68" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E68"/>
@@ -25612,19 +25579,19 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-      <c r="J68" s="42" t="s">
+      <c r="J68" s="38" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="36"/>
+      <c r="A69" s="33"/>
       <c r="B69" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E69"/>
@@ -25632,19 +25599,19 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-      <c r="J69" s="42" t="s">
+      <c r="J69" s="38" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="36"/>
+      <c r="A70" s="33"/>
       <c r="B70" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="30" t="s">
+      <c r="D70" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E70"/>
@@ -25652,19 +25619,19 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-      <c r="J70" s="42" t="s">
+      <c r="J70" s="38" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="36"/>
+      <c r="A71" s="33"/>
       <c r="B71" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="C71" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E71"/>
@@ -25672,21 +25639,21 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="42" t="s">
+      <c r="J71" s="38" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="33" t="s">
         <v>244</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E72"/>
@@ -25694,19 +25661,19 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" s="42" t="s">
+      <c r="J72" s="38" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="36"/>
+      <c r="A73" s="33"/>
       <c r="B73" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="30" t="s">
+      <c r="D73" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E73"/>
@@ -25714,19 +25681,19 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-      <c r="J73" s="42" t="s">
+      <c r="J73" s="38" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="36"/>
+      <c r="A74" s="33"/>
       <c r="B74" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E74"/>
@@ -25734,19 +25701,19 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-      <c r="J74" s="42" t="s">
+      <c r="J74" s="38" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="36"/>
+      <c r="A75" s="33"/>
       <c r="B75" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C75" s="29" t="s">
+      <c r="C75" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E75"/>
@@ -25754,19 +25721,19 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
-      <c r="J75" s="42" t="s">
+      <c r="J75" s="38" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="36"/>
+      <c r="A76" s="33"/>
       <c r="B76" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="27">
         <v>4</v>
       </c>
       <c r="E76"/>
@@ -25774,19 +25741,19 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
-      <c r="J76" s="42" t="s">
+      <c r="J76" s="38" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="36"/>
+      <c r="A77" s="33"/>
       <c r="B77" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="27" t="s">
         <v>255</v>
       </c>
       <c r="E77"/>
@@ -25794,21 +25761,21 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
-      <c r="J77" s="42" t="s">
+      <c r="J77" s="38" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="33" t="s">
         <v>256</v>
       </c>
       <c r="B78" s="24" t="s">
         <v>257</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="30" t="s">
+      <c r="D78" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E78"/>
@@ -25816,19 +25783,19 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
-      <c r="J78" s="42" t="s">
+      <c r="J78" s="38" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="36"/>
+      <c r="A79" s="33"/>
       <c r="B79" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E79"/>
@@ -25836,19 +25803,19 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
-      <c r="J79" s="42" t="s">
+      <c r="J79" s="38" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="36"/>
+      <c r="A80" s="33"/>
       <c r="B80" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="30" t="s">
+      <c r="D80" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E80"/>
@@ -25856,19 +25823,19 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
-      <c r="J80" s="42" t="s">
+      <c r="J80" s="38" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="36"/>
+      <c r="A81" s="33"/>
       <c r="B81" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E81"/>
@@ -25876,19 +25843,19 @@
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
-      <c r="J81" s="42" t="s">
+      <c r="J81" s="38" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="36"/>
+      <c r="A82" s="33"/>
       <c r="B82" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="30" t="s">
+      <c r="D82" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E82"/>
@@ -25896,21 +25863,21 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
-      <c r="J82" s="42" t="s">
+      <c r="J82" s="38" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="33" t="s">
         <v>264</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C83" s="29" t="s">
+      <c r="C83" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="27" t="s">
         <v>13</v>
       </c>
       <c r="E83"/>
@@ -25918,19 +25885,19 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
-      <c r="J83" s="42" t="s">
+      <c r="J83" s="38" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="36"/>
+      <c r="A84" s="33"/>
       <c r="B84" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E84"/>
@@ -25938,19 +25905,19 @@
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84"/>
-      <c r="J84" s="42" t="s">
+      <c r="J84" s="38" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="36"/>
+      <c r="A85" s="33"/>
       <c r="B85" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="29" t="s">
+      <c r="C85" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E85"/>
@@ -25958,19 +25925,19 @@
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
-      <c r="J85" s="42" t="s">
+      <c r="J85" s="38" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="36"/>
+      <c r="A86" s="33"/>
       <c r="B86" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="30" t="s">
+      <c r="D86" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E86"/>
@@ -25978,19 +25945,19 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
-      <c r="J86" s="42" t="s">
+      <c r="J86" s="38" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="36"/>
+      <c r="A87" s="33"/>
       <c r="B87" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="C87" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="27" t="s">
         <v>272</v>
       </c>
       <c r="E87"/>
@@ -25998,21 +25965,21 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87"/>
-      <c r="J87" s="42" t="s">
+      <c r="J87" s="38" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="33" t="s">
         <v>274</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="30" t="s">
+      <c r="D88" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E88"/>
@@ -26020,19 +25987,19 @@
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88"/>
-      <c r="J88" s="42" t="s">
+      <c r="J88" s="38" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="36"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E89"/>
@@ -26040,21 +26007,21 @@
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89"/>
-      <c r="J89" s="42" t="s">
+      <c r="J89" s="38" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="33" t="s">
         <v>279</v>
       </c>
       <c r="B90" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C90" s="29" t="s">
+      <c r="C90" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D90" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E90"/>
@@ -26062,19 +26029,19 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
-      <c r="J90" s="42" t="s">
+      <c r="J90" s="38" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="36"/>
+      <c r="A91" s="33"/>
       <c r="B91" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="30" t="s">
+      <c r="D91" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E91"/>
@@ -26082,21 +26049,21 @@
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
-      <c r="J91" s="42" t="s">
+      <c r="J91" s="38" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="33" t="s">
         <v>282</v>
       </c>
       <c r="B92" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D92" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E92"/>
@@ -26104,19 +26071,19 @@
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92"/>
-      <c r="J92" s="42" t="s">
+      <c r="J92" s="38" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="36"/>
+      <c r="A93" s="33"/>
       <c r="B93" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C93" s="29" t="s">
+      <c r="C93" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="30" t="s">
+      <c r="D93" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E93"/>
@@ -26124,21 +26091,21 @@
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
-      <c r="J93" s="42" t="s">
+      <c r="J93" s="38" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="36" t="s">
+      <c r="A94" s="33" t="s">
         <v>285</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="30" t="s">
+      <c r="D94" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E94"/>
@@ -26146,19 +26113,19 @@
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
-      <c r="J94" s="42" t="s">
+      <c r="J94" s="38" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="36"/>
+      <c r="A95" s="33"/>
       <c r="B95" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="C95" s="29" t="s">
+      <c r="C95" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="30" t="s">
+      <c r="D95" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E95"/>
@@ -26166,21 +26133,21 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
-      <c r="J95" s="42" t="s">
+      <c r="J95" s="38" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B96" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="30">
+      <c r="D96" s="27">
         <v>19</v>
       </c>
       <c r="E96"/>
@@ -26188,19 +26155,19 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
-      <c r="J96" s="42" t="s">
+      <c r="J96" s="38" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="41"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="30">
+      <c r="D97" s="27">
         <v>2</v>
       </c>
       <c r="E97"/>
@@ -26208,19 +26175,19 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97"/>
-      <c r="J97" s="42" t="s">
+      <c r="J97" s="38" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="41"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D98" s="30">
+      <c r="D98" s="27">
         <v>32</v>
       </c>
       <c r="E98"/>
@@ -26228,19 +26195,19 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98"/>
-      <c r="J98" s="42" t="s">
+      <c r="J98" s="38" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="41"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99" s="27">
         <v>6</v>
       </c>
       <c r="E99"/>
@@ -26248,21 +26215,21 @@
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99"/>
-      <c r="J99" s="42" t="s">
+      <c r="J99" s="38" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="41" t="s">
+      <c r="A100" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C100" s="29" t="s">
+      <c r="C100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="30">
+      <c r="D100" s="27">
         <v>19</v>
       </c>
       <c r="E100"/>
@@ -26270,19 +26237,19 @@
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100"/>
-      <c r="J100" s="42" t="s">
+      <c r="J100" s="38" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="41"/>
+      <c r="A101" s="37"/>
       <c r="B101" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="30">
+      <c r="D101" s="27">
         <v>32</v>
       </c>
       <c r="E101"/>
@@ -26290,19 +26257,19 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101"/>
-      <c r="J101" s="42" t="s">
+      <c r="J101" s="38" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="41"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="30">
+      <c r="D102" s="27">
         <v>64</v>
       </c>
       <c r="E102"/>
@@ -26310,19 +26277,19 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102"/>
-      <c r="J102" s="42" t="s">
+      <c r="J102" s="38" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="41"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="30">
+      <c r="D103" s="27">
         <v>32</v>
       </c>
       <c r="E103"/>
@@ -26330,21 +26297,21 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
-      <c r="J103" s="42" t="s">
+      <c r="J103" s="38" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="41" t="s">
+      <c r="A104" s="37" t="s">
         <v>303</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="30">
+      <c r="D104" s="27">
         <v>19</v>
       </c>
       <c r="E104"/>
@@ -26352,19 +26319,19 @@
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
-      <c r="J104" s="42" t="s">
+      <c r="J104" s="38" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="41"/>
+      <c r="A105" s="37"/>
       <c r="B105" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D105" s="30">
+      <c r="D105" s="27">
         <v>3</v>
       </c>
       <c r="E105"/>
@@ -26372,57 +26339,57 @@
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105" s="42" t="s">
+      <c r="J105" s="38" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="41"/>
+      <c r="A106" s="37"/>
       <c r="B106" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="30"/>
+      <c r="D106" s="27"/>
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
-      <c r="J106" s="42" t="s">
+      <c r="J106" s="38" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="41"/>
+      <c r="A107" s="37"/>
       <c r="B107" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C107" s="29" t="s">
+      <c r="C107" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D107" s="30"/>
+      <c r="D107" s="27"/>
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
-      <c r="J107" s="42" t="s">
+      <c r="J107" s="38" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="37" t="s">
         <v>311</v>
       </c>
       <c r="B108" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="30">
+      <c r="D108" s="27">
         <v>19</v>
       </c>
       <c r="E108"/>
@@ -26430,19 +26397,19 @@
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" s="42" t="s">
+      <c r="J108" s="38" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="41"/>
+      <c r="A109" s="37"/>
       <c r="B109" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E109"/>
@@ -26450,19 +26417,19 @@
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
-      <c r="J109" s="42" t="s">
+      <c r="J109" s="38" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="41"/>
+      <c r="A110" s="37"/>
       <c r="B110" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C110" s="29" t="s">
+      <c r="C110" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="30">
+      <c r="D110" s="27">
         <v>4</v>
       </c>
       <c r="E110"/>
@@ -26470,37 +26437,37 @@
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110"/>
-      <c r="J110" s="42" t="s">
+      <c r="J110" s="38" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="41"/>
+      <c r="A111" s="37"/>
       <c r="B111" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D111" s="30"/>
+      <c r="D111" s="27"/>
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111"/>
-      <c r="J111" s="42" t="s">
+      <c r="J111" s="38" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="41"/>
+      <c r="A112" s="37"/>
       <c r="B112" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C112" s="29" t="s">
+      <c r="C112" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="30">
+      <c r="D112" s="27">
         <v>512</v>
       </c>
       <c r="E112"/>
@@ -26508,7 +26475,7 @@
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
-      <c r="J112" s="42" t="s">
+      <c r="J112" s="38" t="s">
         <v>319</v>
       </c>
     </row>
@@ -26517,34 +26484,34 @@
     <row r="115" customFormat="1" spans="1:3">
       <c r="A115" s="24"/>
       <c r="B115" s="24"/>
-      <c r="C115" s="44"/>
+      <c r="C115" s="40"/>
     </row>
     <row r="116" customFormat="1" spans="1:3">
       <c r="A116" s="24"/>
       <c r="B116" s="24"/>
-      <c r="C116" s="44"/>
+      <c r="C116" s="40"/>
     </row>
     <row r="117" customFormat="1" spans="1:3">
       <c r="A117" s="24"/>
       <c r="B117" s="24"/>
-      <c r="C117" s="44"/>
+      <c r="C117" s="40"/>
     </row>
     <row r="118" customFormat="1" spans="1:3">
       <c r="A118" s="24"/>
       <c r="B118" s="24"/>
-      <c r="C118" s="44"/>
+      <c r="C118" s="40"/>
     </row>
     <row r="119" customFormat="1" spans="1:4">
       <c r="A119" s="24"/>
       <c r="B119" s="24"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="29"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" customFormat="1" spans="1:4">
       <c r="A120" s="24"/>
       <c r="B120" s="24"/>
       <c r="C120" s="24"/>
-      <c r="D120" s="29"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" customFormat="1"/>
     <row r="122" customFormat="1"/>
@@ -43140,7 +43107,7 @@
   <sheetPr/>
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
@@ -45672,8 +45639,8 @@
   <sheetPr/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -48669,7 +48636,7 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
